--- a/项目/中餐厅设备点检/2020年10月31日/新建文件夹/1_博智林中餐厅上菜口报警信息V2.1.xlsx
+++ b/项目/中餐厅设备点检/2020年10月31日/新建文件夹/1_博智林中餐厅上菜口报警信息V2.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="10848" windowHeight="9275"/>
   </bookViews>
   <sheets>
     <sheet name="双层锅上菜口" sheetId="1" r:id="rId1"/>
@@ -424,6 +424,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>2#</t>
     </r>
     <r>
@@ -452,25 +457,65 @@
     <t>D1250</t>
   </si>
   <si>
-    <t>1#急停已按下</t>
+    <r>
+      <t>1#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>急停已按下</t>
+    </r>
   </si>
   <si>
     <t>D1050</t>
   </si>
   <si>
-    <t>2#拨盘电机拨菜超时</t>
+    <r>
+      <t>2#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拨盘电机拨菜超时</t>
+    </r>
   </si>
   <si>
     <t>1#拨盘电机拨菜超时报警</t>
   </si>
   <si>
-    <t>2#拨盘电机返回超时</t>
+    <r>
+      <t>2#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拨盘电机返回超时</t>
+    </r>
   </si>
   <si>
     <t>1#拨盘电机返回超时报警</t>
   </si>
   <si>
-    <t>2#步进电机报警</t>
+    <r>
+      <t>2#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>步进电机报警</t>
+    </r>
   </si>
   <si>
     <t>X25</t>
@@ -479,25 +524,65 @@
     <t>1#步进电机报警</t>
   </si>
   <si>
-    <t>2#顶部缺盘报警</t>
+    <r>
+      <t>2#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顶部缺盘报警</t>
+    </r>
   </si>
   <si>
     <t>1#顶部缺盘感应报警</t>
   </si>
   <si>
-    <t>2#底部缺盘报警</t>
+    <r>
+      <t>2#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>底部缺盘报警</t>
+    </r>
   </si>
   <si>
     <t>1#底部缺盘感应报警</t>
   </si>
   <si>
-    <t>2#步进电机上升极限位</t>
+    <r>
+      <t>2#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>步进电机上升极限位</t>
+    </r>
   </si>
   <si>
     <t>1#步进电机上升极限位</t>
   </si>
   <si>
-    <t>2#步进电机下降极限位</t>
+    <r>
+      <t>2#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>步进电机下降极限位</t>
+    </r>
   </si>
   <si>
     <t>1#步进电机下降极限位</t>
@@ -526,12 +611,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -569,14 +654,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,23 +668,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,29 +683,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -681,8 +721,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -691,6 +739,43 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,16 +796,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -737,7 +812,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,7 +836,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,7 +920,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,85 +932,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,25 +950,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,7 +962,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,13 +986,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,45 +1024,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1005,21 +1041,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1043,151 +1064,205 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1528,7 +1603,7 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2" outlineLevelCol="7"/>
@@ -2589,7 +2664,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2" outlineLevelCol="7"/>
@@ -2660,7 +2735,7 @@
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>128</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -2674,7 +2749,7 @@
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>130</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -2696,7 +2771,7 @@
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>132</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -2718,7 +2793,7 @@
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2740,7 +2815,7 @@
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>137</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -2762,7 +2837,7 @@
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>139</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2784,7 +2859,7 @@
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>141</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -2806,7 +2881,7 @@
       <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>143</v>
       </c>
       <c r="C10" s="3" t="s">
